--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">Int</t>
   </si>
@@ -54,7 +54,35 @@
     <t xml:space="preserve">法阵</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0|0|0|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0|0|0|1|1|1</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">光环</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传送门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30|0|100|0|0|-90|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -64,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -100,6 +128,13 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -156,14 +191,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,10 +222,10 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -202,7 +237,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -235,7 +270,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -262,8 +297,8 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
@@ -287,7 +322,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -310,13 +345,15 @@
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>31645</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
@@ -341,13 +378,15 @@
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>32240</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
@@ -369,11 +408,21 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>59956</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -392,10 +441,18 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>88757</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -418,7 +475,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -441,7 +498,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -464,7 +521,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -487,7 +544,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -510,7 +567,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -533,7 +590,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -556,7 +613,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -579,7 +636,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -602,7 +659,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -625,7 +682,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -648,7 +705,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -671,7 +728,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -694,7 +751,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -717,7 +774,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -740,7 +797,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -763,7 +820,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -786,7 +843,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -809,7 +866,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -832,7 +889,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -855,7 +912,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -878,7 +935,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -901,7 +958,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -924,7 +981,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -947,7 +1004,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -970,7 +1027,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -993,7 +1050,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1016,7 +1073,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1039,7 +1096,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1062,7 +1119,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1085,7 +1142,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1108,7 +1165,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1131,7 +1188,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1154,7 +1211,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1177,7 +1234,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1200,7 +1257,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1223,7 +1280,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1246,7 +1303,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1269,7 +1326,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1292,7 +1349,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1315,7 +1372,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1338,7 +1395,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1361,7 +1418,7 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1384,7 +1441,7 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1407,7 +1464,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1430,7 +1487,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1453,7 +1510,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1476,7 +1533,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1499,7 +1556,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1522,7 +1579,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1545,7 +1602,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1568,7 +1625,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1591,7 +1648,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1614,7 +1671,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1637,7 +1694,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1660,7 +1717,7 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1683,7 +1740,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1706,7 +1763,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1729,7 +1786,7 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1752,7 +1809,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1775,7 +1832,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1798,7 +1855,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1821,7 +1878,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1844,7 +1901,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -1867,7 +1924,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -1890,7 +1947,7 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -1913,7 +1970,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -1936,7 +1993,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -1959,7 +2016,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -1982,7 +2039,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2005,7 +2062,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2028,7 +2085,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2051,7 +2108,7 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2074,7 +2131,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -2097,7 +2154,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2120,7 +2177,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2143,7 +2200,7 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2166,7 +2223,7 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2189,7 +2246,7 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2212,7 +2269,7 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2235,7 +2292,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2258,7 +2315,7 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2281,7 +2338,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2304,7 +2361,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2327,7 +2384,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2350,7 +2407,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2373,7 +2430,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2396,7 +2453,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2419,7 +2476,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2442,7 +2499,7 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2465,7 +2522,7 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2488,7 +2545,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2511,7 +2568,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2534,7 +2591,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2557,7 +2614,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2580,7 +2637,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -2603,7 +2660,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2626,7 +2683,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2649,7 +2706,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2672,7 +2729,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -2695,7 +2752,7 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -2718,7 +2775,7 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2741,7 +2798,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -2764,7 +2821,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -2787,7 +2844,7 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -2810,7 +2867,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -2833,7 +2890,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -2856,7 +2913,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -2879,7 +2936,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -2902,7 +2959,7 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -2925,7 +2982,7 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -2948,7 +3005,7 @@
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -2971,7 +3028,7 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -2994,7 +3051,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -3017,7 +3074,7 @@
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3040,7 +3097,7 @@
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -3063,7 +3120,7 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -3086,7 +3143,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -3109,7 +3166,7 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -3132,7 +3189,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -3155,7 +3212,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -3178,7 +3235,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -3201,7 +3258,7 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -3224,7 +3281,7 @@
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -3247,7 +3304,7 @@
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -3270,7 +3327,7 @@
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -3293,7 +3350,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -3316,7 +3373,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3339,7 +3396,7 @@
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -3362,7 +3419,7 @@
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3385,7 +3442,7 @@
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3408,7 +3465,7 @@
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3431,7 +3488,7 @@
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3454,7 +3511,7 @@
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -3477,7 +3534,7 @@
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -3500,7 +3557,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3523,7 +3580,7 @@
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -3546,7 +3603,7 @@
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -3569,7 +3626,7 @@
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -3592,7 +3649,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3615,7 +3672,7 @@
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -3638,7 +3695,7 @@
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3661,7 +3718,7 @@
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3684,7 +3741,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3707,7 +3764,7 @@
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -3730,7 +3787,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -3753,7 +3810,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -3776,7 +3833,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -3799,7 +3856,7 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -3822,7 +3879,7 @@
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -3845,7 +3902,7 @@
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -3868,7 +3925,7 @@
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -3891,7 +3948,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -3914,7 +3971,7 @@
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -3937,7 +3994,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -3960,7 +4017,7 @@
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -3983,7 +4040,7 @@
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -4006,7 +4063,7 @@
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -4029,7 +4086,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -4052,7 +4109,7 @@
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -4075,7 +4132,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -4098,7 +4155,7 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -4121,7 +4178,7 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -4144,7 +4201,7 @@
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -4167,7 +4224,7 @@
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -4190,7 +4247,7 @@
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -4213,7 +4270,7 @@
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -4236,7 +4293,7 @@
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -4259,7 +4316,7 @@
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -4282,7 +4339,7 @@
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -4305,7 +4362,7 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -4328,7 +4385,7 @@
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -4351,7 +4408,7 @@
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -4374,7 +4431,7 @@
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -4397,7 +4454,7 @@
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -4420,7 +4477,7 @@
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -4443,7 +4500,7 @@
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -4466,7 +4523,7 @@
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -4489,7 +4546,7 @@
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -4512,7 +4569,7 @@
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -4535,7 +4592,7 @@
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -4558,7 +4615,7 @@
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -4581,7 +4638,7 @@
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -4604,7 +4661,7 @@
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -4627,7 +4684,7 @@
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -4650,7 +4707,7 @@
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4673,7 +4730,7 @@
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
+      <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -4696,7 +4753,7 @@
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4719,7 +4776,7 @@
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="2"/>
+      <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -4742,7 +4799,7 @@
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="2"/>
+      <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -4765,7 +4822,7 @@
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -4788,7 +4845,7 @@
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="2"/>
+      <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -4811,7 +4868,7 @@
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="2"/>
+      <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>

--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Int</t>
   </si>
@@ -58,7 +58,82 @@
 2-FeMale</t>
   </si>
   <si>
+    <t>0|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>广告牌</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|0.2|0.2|0.2</t>
+  </si>
+  <si>
+    <t>火焰</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|10|10|10</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
     <t>-70|0|150|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>法阵</t>
+  </si>
+  <si>
+    <t>桃心</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>音符</t>
+  </si>
+  <si>
+    <t>光环</t>
+  </si>
+  <si>
+    <t>彩带</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>禁锢</t>
+  </si>
+  <si>
+    <t>防护盾</t>
+  </si>
+  <si>
+    <t>角色__BUFF</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>禁锢Buff</t>
+  </si>
+  <si>
+    <t>治疗Buff</t>
+  </si>
+  <si>
+    <t>盾牌</t>
+  </si>
+  <si>
+    <t>击杀</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>生成光环</t>
   </si>
 </sst>
 </file>
@@ -71,7 +146,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -87,6 +162,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="1"/>
     </font>
     <font>
@@ -549,21 +630,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,119 +650,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -697,6 +778,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1360,14 +1444,14 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4">
-        <v>220041</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>525387</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
@@ -1391,14 +1475,14 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
-        <v>220469</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>501310</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4">
@@ -1422,15 +1506,17 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="4">
-        <v>220036</v>
+        <v>57202</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1453,15 +1539,17 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="4">
-        <v>220037</v>
+        <v>28451</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1484,15 +1572,17 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="4">
-        <v>220038</v>
+        <v>220840</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1515,15 +1605,17 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="4">
-        <v>220040</v>
+        <v>220841</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1546,15 +1638,17 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="4">
-        <v>220042</v>
+        <v>220842</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1577,15 +1671,17 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="4">
-        <v>220043</v>
+        <v>220843</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1608,15 +1704,17 @@
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="4">
-        <v>220044</v>
+        <v>220844</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1639,15 +1737,17 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="4">
-        <v>220045</v>
+        <v>220845</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1670,15 +1770,17 @@
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="4">
-        <v>220046</v>
+        <v>220846</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1701,15 +1803,17 @@
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="4">
-        <v>220047</v>
+        <v>220847</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1732,15 +1836,17 @@
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="4">
-        <v>220048</v>
+        <v>220848</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1763,15 +1869,17 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" s="4">
-        <v>220049</v>
+        <v>220849</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1794,15 +1902,17 @@
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="4">
-        <v>220840</v>
+        <v>220850</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1825,15 +1935,17 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="4">
-        <v>220841</v>
+        <v>220851</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -1856,15 +1968,17 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="4">
-        <v>220842</v>
+        <v>220041</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1887,15 +2001,17 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="4">
-        <v>220843</v>
+        <v>220469</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -1918,14 +2034,16 @@
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C23" s="4">
-        <v>220844</v>
-      </c>
-      <c r="D23" s="5" t="s">
+        <v>31645</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4">
@@ -1949,14 +2067,16 @@
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="4">
-        <v>220845</v>
-      </c>
-      <c r="D24" s="5" t="s">
+        <v>4366</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4">
@@ -1980,14 +2100,16 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C25" s="4">
-        <v>220846</v>
-      </c>
-      <c r="D25" s="5" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4">
@@ -2011,14 +2133,16 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C26" s="4">
-        <v>220847</v>
-      </c>
-      <c r="D26" s="5" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="4">
@@ -2042,14 +2166,16 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C27" s="4">
-        <v>220848</v>
-      </c>
-      <c r="D27" s="5" t="s">
+        <v>32240</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="4">
@@ -2073,14 +2199,16 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C28" s="4">
-        <v>220849</v>
-      </c>
-      <c r="D28" s="5" t="s">
+        <v>59956</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="4">
@@ -2104,14 +2232,16 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C29" s="4">
-        <v>220850</v>
-      </c>
-      <c r="D29" s="5" t="s">
+        <v>73402</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="4">
@@ -2135,14 +2265,16 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C30" s="4">
-        <v>220851</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>88762</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="4">
@@ -2166,11 +2298,21 @@
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4">
+        <v>88773</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2189,11 +2331,21 @@
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4">
+        <v>89073</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2212,11 +2364,21 @@
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <v>89109</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2235,11 +2397,21 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>89111</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2258,11 +2430,21 @@
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
+        <v>89112</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2281,11 +2463,21 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4">
+        <v>89122</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2304,11 +2496,21 @@
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4">
+        <v>113903</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2327,11 +2529,21 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="4">
+        <v>113913</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2350,11 +2562,21 @@
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4">
+        <v>113907</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2373,11 +2595,21 @@
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="4">
+        <v>119917</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2396,11 +2628,21 @@
       <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4">
+        <v>130776</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2419,11 +2661,21 @@
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="4">
+        <v>141655</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2442,11 +2694,21 @@
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="4">
+        <v>141657</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2465,11 +2727,21 @@
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4">
+        <v>142753</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2488,11 +2760,21 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="4">
+        <v>142751</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2511,11 +2793,21 @@
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="4">
+        <v>142951</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2534,11 +2826,21 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4">
+        <v>156399</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2557,11 +2859,19 @@
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="C48" s="4">
+        <v>157113</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2580,11 +2890,19 @@
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="2"/>
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="C49" s="4">
+        <v>157118</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2603,11 +2921,19 @@
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="C50" s="4">
+        <v>157119</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2626,11 +2952,21 @@
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="4">
+        <v>271322</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2649,11 +2985,21 @@
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="4">
+        <v>311092</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2672,11 +3018,21 @@
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="4">
+        <v>318586</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2695,11 +3051,19 @@
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="2"/>
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="C54" s="4">
+        <v>501294</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -5845,236 +6209,6 @@
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
     </row>
-    <row r="191" spans="1:21">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-    </row>
-    <row r="192" spans="1:21">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
-    </row>
-    <row r="193" spans="1:21">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-    </row>
-    <row r="194" spans="1:21">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
-    </row>
-    <row r="195" spans="1:21">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
-    </row>
-    <row r="196" spans="1:21">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
-    </row>
-    <row r="197" spans="1:21">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
-    </row>
-    <row r="198" spans="1:21">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
-    </row>
-    <row r="199" spans="1:21">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-    </row>
-    <row r="200" spans="1:21">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>Int</t>
   </si>
@@ -67,10 +67,22 @@
     <t>0|0|0|0|0|0|0.2|0.2|0.2</t>
   </si>
   <si>
+    <t>流光</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|-90|1|1|1</t>
+  </si>
+  <si>
     <t>火焰</t>
   </si>
   <si>
     <t>0|0|0|0|0|0|10|10|10</t>
+  </si>
+  <si>
+    <t>雪花</t>
+  </si>
+  <si>
+    <t>0|0|120|0|0|0|0.5|0.5|0.5</t>
   </si>
   <si>
     <t>星座</t>
@@ -134,6 +146,15 @@
   </si>
   <si>
     <t>生成光环</t>
+  </si>
+  <si>
+    <t>烟花</t>
+  </si>
+  <si>
+    <t>全息投影</t>
+  </si>
+  <si>
+    <t>剪纸</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U190"/>
+  <dimension ref="A1:U193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1546,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>28451</v>
+        <v>365194</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -1575,11 +1596,11 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>220840</v>
+        <v>28451</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -1608,14 +1629,14 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>220841</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>526080</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1641,14 +1662,12 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="4">
-        <v>220842</v>
+        <v>144093</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1675,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
-        <v>220843</v>
+        <v>220840</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1708,13 +1727,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
-        <v>220844</v>
+        <v>220841</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1741,13 +1760,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
-        <v>220845</v>
+        <v>220842</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1774,13 +1793,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>220846</v>
+        <v>220843</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1807,13 +1826,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
-        <v>220847</v>
+        <v>220844</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1840,13 +1859,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
-        <v>220848</v>
+        <v>220845</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1873,13 +1892,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>220849</v>
+        <v>220846</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1906,13 +1925,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>220850</v>
+        <v>220847</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1939,13 +1958,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
-        <v>220851</v>
+        <v>220848</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -1972,13 +1991,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
-        <v>220041</v>
+        <v>220849</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2005,13 +2024,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
-        <v>220469</v>
+        <v>220850</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2038,13 +2057,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
-        <v>31645</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>220851</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2070,14 +2089,14 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C24" s="4">
-        <v>4366</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>220041</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2107,10 +2126,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="4">
-        <v>4367</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>220469</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2137,10 +2156,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
-        <v>4368</v>
+        <v>31645</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -2170,10 +2189,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
-        <v>32240</v>
+        <v>4366</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2203,10 +2222,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4">
-        <v>59956</v>
+        <v>4367</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2236,10 +2255,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4">
-        <v>73402</v>
+        <v>4368</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -2269,10 +2288,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4">
-        <v>88762</v>
+        <v>32240</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2302,10 +2321,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4">
-        <v>88773</v>
+        <v>59956</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2335,10 +2354,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4">
-        <v>89073</v>
+        <v>73402</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -2368,10 +2387,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4">
-        <v>89109</v>
+        <v>88762</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2401,10 +2420,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4">
-        <v>89111</v>
+        <v>88773</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2434,10 +2453,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
-        <v>89112</v>
+        <v>89073</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2467,10 +2486,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C36" s="4">
-        <v>89122</v>
+        <v>89109</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2500,10 +2519,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" s="4">
-        <v>113903</v>
+        <v>89111</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2533,10 +2552,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4">
-        <v>113913</v>
+        <v>89112</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -2566,10 +2585,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" s="4">
-        <v>113907</v>
+        <v>89122</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -2599,10 +2618,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" s="4">
-        <v>119917</v>
+        <v>113903</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -2632,10 +2651,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4">
-        <v>130776</v>
+        <v>113913</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2665,10 +2684,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4">
-        <v>141655</v>
+        <v>113907</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -2698,10 +2717,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4">
-        <v>141657</v>
+        <v>119917</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -2731,10 +2750,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" s="4">
-        <v>142753</v>
+        <v>130776</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -2764,10 +2783,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4">
-        <v>142751</v>
+        <v>141655</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -2797,10 +2816,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C46" s="4">
-        <v>142951</v>
+        <v>141657</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2830,10 +2849,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4">
-        <v>156399</v>
+        <v>142753</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -2862,9 +2881,11 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C48" s="4">
-        <v>157113</v>
+        <v>142751</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -2893,9 +2914,11 @@
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C49" s="4">
-        <v>157118</v>
+        <v>142951</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -2924,9 +2947,11 @@
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C50" s="4">
-        <v>157119</v>
+        <v>156399</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
@@ -2955,11 +2980,9 @@
       <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="4">
-        <v>271322</v>
+        <v>157113</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -2988,11 +3011,9 @@
       <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="4">
-        <v>311092</v>
+        <v>157118</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3021,11 +3042,9 @@
       <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="4">
-        <v>318586</v>
+        <v>157119</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -3054,9 +3073,11 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C54" s="4">
-        <v>501294</v>
+        <v>271322</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3082,11 +3103,21 @@
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="4">
+        <v>311092</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3105,11 +3136,21 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="4">
+        <v>318586</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3128,11 +3169,19 @@
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="C57" s="4">
+        <v>501294</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3151,11 +3200,21 @@
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="4">
+        <v>127013</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3174,11 +3233,19 @@
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="C59" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -3197,11 +3264,19 @@
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="C60" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3220,11 +3295,19 @@
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="C61" s="4">
+        <v>146753</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3243,11 +3326,21 @@
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="4">
+        <v>146754</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3266,11 +3359,21 @@
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="4">
+        <v>144082</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3289,11 +3392,21 @@
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="4">
+        <v>361275</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -6209,6 +6322,75 @@
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
     </row>
+    <row r="191" spans="1:21">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>Int</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>-70|0|150|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-30|80|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>法阵</t>
@@ -167,7 +170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -190,6 +193,11 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -651,21 +659,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,119 +679,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -803,6 +811,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1337,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U193"/>
+  <dimension ref="A1:U194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1722,18 +1733,16 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" ht="17.25" spans="1:21">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>220841</v>
+      <c r="B13" s="2"/>
+      <c r="C13" s="7">
+        <v>485354</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1763,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="4">
-        <v>220842</v>
+        <v>220841</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
@@ -1792,11 +1801,11 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>220843</v>
+        <v>220842</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
@@ -1825,11 +1834,11 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4">
-        <v>220844</v>
+        <v>220843</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
@@ -1862,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="4">
-        <v>220845</v>
+        <v>220844</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
@@ -1891,11 +1900,11 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>220846</v>
+        <v>220845</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>19</v>
@@ -1924,11 +1933,11 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>220847</v>
+        <v>220846</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
@@ -1961,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="4">
-        <v>220848</v>
+        <v>220847</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
@@ -1990,11 +1999,11 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="4">
-        <v>220849</v>
+        <v>220848</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
@@ -2023,11 +2032,11 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="4">
-        <v>220850</v>
+        <v>220849</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>19</v>
@@ -2060,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4">
-        <v>220851</v>
+        <v>220850</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>19</v>
@@ -2089,11 +2098,11 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="4">
-        <v>220041</v>
+        <v>220851</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>19</v>
@@ -2122,11 +2131,11 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="4">
-        <v>220469</v>
+        <v>220041</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>19</v>
@@ -2156,13 +2165,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4">
-        <v>31645</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>220469</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2192,7 +2201,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="4">
-        <v>4366</v>
+        <v>31645</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2225,7 +2234,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="4">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2258,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="4">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -2291,7 +2300,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="4">
-        <v>32240</v>
+        <v>4368</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2321,10 +2330,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4">
-        <v>59956</v>
+        <v>32240</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2357,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="4">
-        <v>73402</v>
+        <v>59956</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -2390,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="4">
-        <v>88762</v>
+        <v>73402</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2420,10 +2429,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4">
-        <v>88773</v>
+        <v>88762</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2456,7 +2465,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="4">
-        <v>89073</v>
+        <v>88773</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2489,7 +2498,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="4">
-        <v>89109</v>
+        <v>89073</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2519,10 +2528,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="4">
-        <v>89111</v>
+        <v>89109</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2552,10 +2561,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4">
-        <v>89112</v>
+        <v>89111</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -2588,7 +2597,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="4">
-        <v>89122</v>
+        <v>89112</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -2621,7 +2630,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="4">
-        <v>113903</v>
+        <v>89122</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -2651,10 +2660,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C41" s="4">
-        <v>113913</v>
+        <v>113903</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2684,10 +2693,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4">
-        <v>113907</v>
+        <v>113913</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -2720,7 +2729,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="4">
-        <v>119917</v>
+        <v>113907</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -2750,10 +2759,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" s="4">
-        <v>130776</v>
+        <v>119917</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -2786,7 +2795,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="4">
-        <v>141655</v>
+        <v>130776</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -2816,10 +2825,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4">
-        <v>141657</v>
+        <v>141655</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2852,7 +2861,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="4">
-        <v>142753</v>
+        <v>141657</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -2882,10 +2891,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4">
-        <v>142751</v>
+        <v>142753</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -2915,10 +2924,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4">
-        <v>142951</v>
+        <v>142751</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -2948,10 +2957,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C50" s="4">
-        <v>156399</v>
+        <v>142951</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
@@ -2980,9 +2989,11 @@
       <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C51" s="4">
-        <v>157113</v>
+        <v>156399</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -3013,7 +3024,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="4">
-        <v>157118</v>
+        <v>157113</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3044,7 +3055,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="4">
-        <v>157119</v>
+        <v>157118</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -3073,11 +3084,9 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="4">
-        <v>271322</v>
+        <v>157119</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3110,7 +3119,7 @@
         <v>37</v>
       </c>
       <c r="C55" s="4">
-        <v>311092</v>
+        <v>271322</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -3143,7 +3152,7 @@
         <v>38</v>
       </c>
       <c r="C56" s="4">
-        <v>318586</v>
+        <v>311092</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -3172,9 +3181,11 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C57" s="4">
-        <v>501294</v>
+        <v>318586</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -3203,11 +3214,9 @@
       <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="4">
-        <v>127013</v>
+        <v>501294</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -3236,9 +3245,11 @@
       <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C59" s="4">
-        <v>146328</v>
+        <v>127013</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -3300,7 +3311,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="4">
-        <v>146753</v>
+        <v>146328</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -3329,11 +3340,9 @@
       <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="4">
-        <v>146754</v>
+        <v>146753</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -3366,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="4">
-        <v>144082</v>
+        <v>146754</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3399,7 +3408,7 @@
         <v>41</v>
       </c>
       <c r="C64" s="4">
-        <v>361275</v>
+        <v>144082</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3425,11 +3434,21 @@
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="4">
+        <v>361275</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -6391,6 +6410,29 @@
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
     </row>
+    <row r="194" spans="1:21">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>Int</t>
   </si>
@@ -82,7 +82,19 @@
     <t>雪花</t>
   </si>
   <si>
+    <t>0|0|50|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|50|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|5|0|0|0|0.5|0.5|2</t>
+  </si>
+  <si>
     <t>0|0|120|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|100|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>星座</t>
@@ -104,6 +116,9 @@
   </si>
   <si>
     <t>音符</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>光环</t>
@@ -1348,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U194"/>
+  <dimension ref="A1:U214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1675,9 +1690,9 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4">
-        <v>144093</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>464265</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4">
@@ -1704,14 +1719,12 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
-        <v>220840</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>266517</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1733,16 +1746,16 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" ht="17.25" spans="1:21">
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7">
-        <v>485354</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4">
+        <v>266518</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1768,14 +1781,12 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="4">
-        <v>220841</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>266519</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1801,14 +1812,12 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
-        <v>220842</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>266520</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1834,14 +1843,12 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
-        <v>220843</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>266521</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1867,14 +1874,12 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="4">
+        <v>439411</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="4">
-        <v>220844</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1900,14 +1905,12 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
-        <v>220845</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>484531</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1933,14 +1936,12 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="4">
-        <v>220846</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>144088</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1966,13 +1967,11 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="4">
-        <v>220847</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>439415</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="4">
@@ -1999,14 +1998,12 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="4">
-        <v>220848</v>
+        <v>144093</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2032,14 +2029,12 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="4">
-        <v>220849</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>326212</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2065,14 +2060,12 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="4">
-        <v>220850</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>326224</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2098,14 +2091,12 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="4">
-        <v>220851</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>19</v>
+        <v>383667</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2131,14 +2122,12 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="4">
-        <v>220041</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>383676</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2164,14 +2153,12 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="4">
-        <v>220469</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>19</v>
+        <v>386040</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2197,14 +2184,12 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="4">
+        <v>394667</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C27" s="4">
-        <v>31645</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2230,14 +2215,12 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="4">
-        <v>4366</v>
+        <v>394678</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2263,14 +2246,14 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4">
+        <v>220840</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4367</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -2292,18 +2275,16 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" ht="17.25" spans="1:21">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="7">
+        <v>485354</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4368</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2330,13 +2311,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4">
-        <v>32240</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>220841</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2363,13 +2344,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4">
-        <v>59956</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>220842</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2395,14 +2376,14 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="4">
-        <v>73402</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>220843</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2429,13 +2410,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4">
-        <v>88762</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>220844</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -2462,13 +2443,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4">
-        <v>88773</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>220845</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -2494,14 +2475,14 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="4">
-        <v>89073</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>220846</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -2528,13 +2509,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
-        <v>89109</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>220847</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -2561,13 +2542,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C38" s="4">
-        <v>89111</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>220848</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -2593,14 +2574,14 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>29</v>
+      <c r="B39" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="4">
-        <v>89112</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>220849</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -2627,13 +2608,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4">
-        <v>89122</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>220850</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -2660,13 +2641,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
-        <v>113903</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>220851</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2692,14 +2673,14 @@
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>28</v>
+      <c r="B42" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C42" s="4">
-        <v>113913</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>220041</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -2726,13 +2707,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4">
-        <v>113907</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>220469</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -2759,10 +2740,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4">
-        <v>119917</v>
+        <v>31645</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -2792,10 +2773,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
-        <v>130776</v>
+        <v>4366</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -2825,10 +2806,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4">
-        <v>141655</v>
+        <v>4367</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2858,10 +2839,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4">
-        <v>141657</v>
+        <v>4368</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -2890,14 +2871,12 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="4">
-        <v>142753</v>
+        <v>144084</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -2923,11 +2902,9 @@
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="4">
-        <v>142751</v>
+        <v>146786</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -2956,14 +2933,12 @@
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="4">
-        <v>142951</v>
+        <v>144083</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2990,10 +2965,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4">
-        <v>156399</v>
+        <v>32240</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -3022,9 +2997,11 @@
       <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C52" s="4">
-        <v>157113</v>
+        <v>59956</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3053,9 +3030,11 @@
       <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C53" s="4">
-        <v>157118</v>
+        <v>73402</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -3084,9 +3063,11 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C54" s="4">
-        <v>157119</v>
+        <v>88762</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3116,10 +3097,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4">
-        <v>271322</v>
+        <v>88773</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -3149,10 +3130,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C56" s="4">
-        <v>311092</v>
+        <v>89073</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -3182,10 +3163,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4">
-        <v>318586</v>
+        <v>89109</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -3214,9 +3195,11 @@
       <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C58" s="4">
-        <v>501294</v>
+        <v>89111</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -3246,10 +3229,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C59" s="4">
-        <v>127013</v>
+        <v>89112</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -3278,9 +3261,11 @@
       <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C60" s="4">
-        <v>146328</v>
+        <v>89122</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
@@ -3309,9 +3294,11 @@
       <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C61" s="4">
-        <v>146328</v>
+        <v>113903</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -3340,9 +3327,11 @@
       <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C62" s="4">
-        <v>146753</v>
+        <v>113913</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -3372,10 +3361,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C63" s="4">
-        <v>146754</v>
+        <v>113907</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3405,10 +3394,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C64" s="4">
-        <v>144082</v>
+        <v>119917</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3438,10 +3427,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C65" s="4">
-        <v>361275</v>
+        <v>130776</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
@@ -3467,11 +3456,21 @@
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4">
+        <v>141655</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3490,11 +3489,21 @@
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4">
+        <v>141657</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3513,11 +3522,21 @@
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="4">
+        <v>142753</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3536,11 +3555,21 @@
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>142751</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -3559,11 +3588,21 @@
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="4">
+        <v>142951</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3582,11 +3621,21 @@
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="4">
+        <v>156399</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -3605,11 +3654,19 @@
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="C72" s="4">
+        <v>157113</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -3628,11 +3685,19 @@
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="2"/>
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="C73" s="4">
+        <v>157118</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3651,11 +3716,19 @@
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="2"/>
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="C74" s="4">
+        <v>157119</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -3674,11 +3747,21 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="4">
+        <v>271322</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -3697,11 +3780,21 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4">
+        <v>311092</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -3720,11 +3813,21 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="4">
+        <v>318586</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3743,11 +3846,19 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="2"/>
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="C78" s="4">
+        <v>501294</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3766,11 +3877,21 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="4">
+        <v>127013</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3789,11 +3910,19 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="2"/>
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="C80" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3812,11 +3941,19 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="2"/>
+      <c r="A81" s="4">
+        <v>77</v>
+      </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="C81" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3835,11 +3972,19 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="2"/>
+      <c r="A82" s="4">
+        <v>78</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="C82" s="4">
+        <v>146753</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3858,11 +4003,21 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="4">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="4">
+        <v>146754</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3881,11 +4036,21 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="4">
+        <v>80</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4">
+        <v>144082</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3904,11 +4069,21 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="4">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="4">
+        <v>361275</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -6433,6 +6608,466 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
     </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>Int</t>
   </si>
@@ -67,16 +67,43 @@
     <t>0|0|0|0|0|0|0.2|0.2|0.2</t>
   </si>
   <si>
+    <t>流光</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|-90|1|1|1</t>
+  </si>
+  <si>
     <t>火焰</t>
   </si>
   <si>
     <t>0|0|0|0|0|0|10|10|10</t>
   </si>
   <si>
+    <t>雪花</t>
+  </si>
+  <si>
+    <t>0|0|50|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|50|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|5|0|0|0|0.5|0.5|2</t>
+  </si>
+  <si>
+    <t>0|0|120|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|100|0|0|0|1|1|1</t>
+  </si>
+  <si>
     <t>星座</t>
   </si>
   <si>
     <t>-70|0|150|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-30|80|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>法阵</t>
@@ -89,6 +116,9 @@
   </si>
   <si>
     <t>音符</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>光环</t>
@@ -135,6 +165,15 @@
   <si>
     <t>生成光环</t>
   </si>
+  <si>
+    <t>烟花</t>
+  </si>
+  <si>
+    <t>全息投影</t>
+  </si>
+  <si>
+    <t>剪纸</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +185,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -169,6 +208,11 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -630,21 +674,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,119 +694,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -782,6 +826,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1316,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U190"/>
+  <dimension ref="A1:U214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1546,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>28451</v>
+        <v>365194</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -1575,11 +1622,11 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>220840</v>
+        <v>28451</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -1608,14 +1655,14 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>220841</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>526080</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1641,14 +1688,12 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="4">
-        <v>220842</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>464265</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1674,14 +1719,12 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
-        <v>220843</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>266517</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1707,14 +1750,12 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="4">
-        <v>220844</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>266518</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1740,14 +1781,12 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="4">
-        <v>220845</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>266519</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1773,14 +1812,12 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
-        <v>220846</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>266520</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1806,14 +1843,12 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
-        <v>220847</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>266521</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1839,14 +1874,12 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="4">
-        <v>220848</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>439411</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1872,14 +1905,12 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
-        <v>220849</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>484531</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1905,14 +1936,12 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="4">
-        <v>220850</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>144088</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1938,14 +1967,12 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="4">
-        <v>220851</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
+        <v>439415</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -1971,14 +1998,12 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="4">
-        <v>220041</v>
+        <v>144093</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2004,14 +2029,12 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="4">
-        <v>220469</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>326212</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2037,14 +2060,12 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="4">
-        <v>31645</v>
+        <v>326224</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2070,14 +2091,12 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="4">
-        <v>4366</v>
+        <v>383667</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2103,14 +2122,12 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="4">
-        <v>4367</v>
+        <v>383676</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2136,14 +2153,12 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="4">
-        <v>4368</v>
+        <v>386040</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2169,14 +2184,12 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="4">
-        <v>32240</v>
+        <v>394667</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2202,14 +2215,12 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="4">
-        <v>59956</v>
+        <v>394678</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2235,14 +2246,14 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="4">
-        <v>73402</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>220840</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -2264,18 +2275,16 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" ht="17.25" spans="1:21">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4">
-        <v>88762</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7">
+        <v>485354</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2305,10 +2314,10 @@
         <v>22</v>
       </c>
       <c r="C31" s="4">
-        <v>88773</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>220841</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2335,13 +2344,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4">
+        <v>220842</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C32" s="4">
-        <v>89073</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2367,14 +2376,14 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>24</v>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="4">
-        <v>89109</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>220843</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2401,13 +2410,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4">
-        <v>89111</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>220844</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -2434,13 +2443,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4">
-        <v>89112</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>220845</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -2466,14 +2475,14 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>25</v>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="4">
-        <v>89122</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>220846</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -2500,13 +2509,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
-        <v>113903</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>220847</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -2533,13 +2542,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4">
+        <v>220848</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C38" s="4">
-        <v>113913</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -2565,14 +2574,14 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
+      <c r="B39" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="4">
-        <v>113907</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>220849</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -2599,13 +2608,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4">
-        <v>119917</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>220850</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -2632,13 +2641,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
-        <v>130776</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>220851</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2664,14 +2673,14 @@
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>29</v>
+      <c r="B42" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C42" s="4">
-        <v>141655</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>220041</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -2698,13 +2707,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4">
-        <v>141657</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>220469</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -2731,10 +2740,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4">
-        <v>142753</v>
+        <v>31645</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -2764,10 +2773,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
-        <v>142751</v>
+        <v>4366</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -2797,10 +2806,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4">
-        <v>142951</v>
+        <v>4367</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2830,10 +2839,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4">
-        <v>156399</v>
+        <v>4368</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -2864,10 +2873,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="4">
-        <v>157113</v>
+        <v>144084</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -2895,7 +2904,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="4">
-        <v>157118</v>
+        <v>146786</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -2926,10 +2935,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="4">
-        <v>157119</v>
+        <v>144083</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2956,10 +2965,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4">
-        <v>271322</v>
+        <v>32240</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -2989,10 +2998,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4">
-        <v>311092</v>
+        <v>59956</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3022,10 +3031,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C53" s="4">
-        <v>318586</v>
+        <v>73402</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -3054,9 +3063,11 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C54" s="4">
-        <v>501294</v>
+        <v>88762</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3082,11 +3093,21 @@
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="4">
+        <v>88773</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3105,11 +3126,21 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="4">
+        <v>89073</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3128,11 +3159,21 @@
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="4">
+        <v>89109</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3151,11 +3192,21 @@
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="4">
+        <v>89111</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3174,11 +3225,21 @@
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4">
+        <v>89112</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -3197,11 +3258,21 @@
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="4">
+        <v>89122</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3220,11 +3291,21 @@
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="4">
+        <v>113903</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3243,11 +3324,21 @@
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="4">
+        <v>113913</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3266,11 +3357,21 @@
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4">
+        <v>113907</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3289,11 +3390,21 @@
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="4">
+        <v>119917</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3312,11 +3423,21 @@
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="4">
+        <v>130776</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3335,11 +3456,21 @@
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4">
+        <v>141655</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3358,11 +3489,21 @@
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4">
+        <v>141657</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3381,11 +3522,21 @@
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="4">
+        <v>142753</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3404,11 +3555,21 @@
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>142751</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -3427,11 +3588,21 @@
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="4">
+        <v>142951</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3450,11 +3621,21 @@
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="4">
+        <v>156399</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -3473,11 +3654,19 @@
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="C72" s="4">
+        <v>157113</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -3496,11 +3685,19 @@
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="2"/>
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="C73" s="4">
+        <v>157118</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3519,11 +3716,19 @@
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="2"/>
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="C74" s="4">
+        <v>157119</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -3542,11 +3747,21 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="4">
+        <v>271322</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -3565,11 +3780,21 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4">
+        <v>311092</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -3588,11 +3813,21 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="4">
+        <v>318586</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3611,11 +3846,19 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="2"/>
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="C78" s="4">
+        <v>501294</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3634,11 +3877,21 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="4">
+        <v>127013</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3657,11 +3910,19 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="2"/>
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="C80" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3680,11 +3941,19 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="2"/>
+      <c r="A81" s="4">
+        <v>77</v>
+      </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="C81" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3703,11 +3972,19 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="2"/>
+      <c r="A82" s="4">
+        <v>78</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="C82" s="4">
+        <v>146753</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3726,11 +4003,21 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="4">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="4">
+        <v>146754</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3749,11 +4036,21 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="4">
+        <v>80</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4">
+        <v>144082</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3772,11 +4069,21 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="4">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="4">
+        <v>361275</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -6209,6 +6516,558 @@
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
     </row>
+    <row r="191" spans="1:21">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Effects_特效.xlsx
+++ b/rp/Excel/Effects_特效.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
   <si>
     <t>Int</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>0|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|150|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>广告牌</t>
@@ -1363,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U214"/>
+  <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1496,7 +1499,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4">
-        <v>525387</v>
+        <v>556585</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1527,10 +1530,10 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
-        <v>501310</v>
+        <v>558271</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1556,14 +1559,12 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="4">
-        <v>57202</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>565350</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1589,14 +1590,12 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="4">
-        <v>365194</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>567138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1622,14 +1621,12 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="4">
-        <v>28451</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>567139</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1655,11 +1652,9 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="4">
-        <v>526080</v>
+        <v>525387</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1688,12 +1683,12 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="4">
-        <v>464265</v>
+        <v>501310</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1719,12 +1714,14 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="4">
-        <v>266517</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>57202</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1750,12 +1747,14 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="4">
-        <v>266518</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>365194</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1781,12 +1780,14 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="4">
-        <v>266519</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>28451</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1812,12 +1813,14 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="4">
-        <v>266520</v>
+        <v>526080</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1845,10 +1848,10 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="4">
-        <v>266521</v>
+        <v>464265</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1876,7 +1879,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4">
-        <v>439411</v>
+        <v>266517</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -1907,10 +1910,10 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4">
-        <v>484531</v>
+        <v>266518</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1938,10 +1941,10 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4">
-        <v>144088</v>
+        <v>266519</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1969,10 +1972,10 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4">
-        <v>439415</v>
+        <v>266520</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2000,10 +2003,10 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4">
-        <v>144093</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>20</v>
+        <v>266521</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2031,10 +2034,10 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4">
-        <v>326212</v>
+        <v>439411</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2062,10 +2065,10 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4">
-        <v>326224</v>
+        <v>484531</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2093,10 +2096,10 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4">
-        <v>383667</v>
+        <v>144088</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2124,10 +2127,10 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="4">
-        <v>383676</v>
+        <v>439415</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2155,9 +2158,9 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="4">
-        <v>386040</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>144093</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="4">
@@ -2186,10 +2189,10 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="4">
-        <v>394667</v>
+        <v>326212</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2217,10 +2220,10 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="4">
-        <v>394678</v>
+        <v>326224</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2246,14 +2249,12 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="4">
+        <v>383667</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C29" s="4">
-        <v>220840</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -2275,16 +2276,16 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" ht="17.25" spans="1:21">
+    <row r="30" spans="1:21">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="7">
-        <v>485354</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>24</v>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4">
+        <v>383676</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2310,14 +2311,12 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="4">
+        <v>386040</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C31" s="4">
-        <v>220841</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2343,14 +2342,12 @@
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="4">
+        <v>394667</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C32" s="4">
-        <v>220842</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2376,14 +2373,12 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="4">
+        <v>394678</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C33" s="4">
-        <v>220843</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2409,14 +2404,14 @@
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="4">
-        <v>220844</v>
+        <v>220840</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -2438,18 +2433,16 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" ht="17.25" spans="1:21">
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="4">
-        <v>220845</v>
+      <c r="B35" s="2"/>
+      <c r="C35" s="7">
+        <v>485354</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -2475,14 +2468,14 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>22</v>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C36" s="4">
-        <v>220846</v>
+        <v>220841</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -2509,13 +2502,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4">
-        <v>220847</v>
+        <v>220842</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -2541,14 +2534,14 @@
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>22</v>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C38" s="4">
-        <v>220848</v>
+        <v>220843</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -2574,14 +2567,14 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>22</v>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C39" s="4">
-        <v>220849</v>
+        <v>220844</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -2608,13 +2601,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4">
-        <v>220850</v>
+        <v>220845</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -2640,14 +2633,14 @@
       <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
+      <c r="B41" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C41" s="4">
-        <v>220851</v>
+        <v>220846</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2673,14 +2666,14 @@
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>22</v>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C42" s="4">
-        <v>220041</v>
+        <v>220847</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -2707,13 +2700,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="4">
-        <v>220469</v>
+        <v>220848</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -2739,14 +2732,14 @@
       <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>25</v>
+      <c r="B44" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C44" s="4">
-        <v>31645</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>220849</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -2773,13 +2766,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4">
-        <v>4366</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>220850</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -2806,13 +2799,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4">
-        <v>4367</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>220851</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -2838,14 +2831,14 @@
       <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>28</v>
+      <c r="B47" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C47" s="4">
-        <v>4368</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>220041</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -2871,12 +2864,14 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C48" s="4">
-        <v>144084</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>29</v>
+        <v>220469</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -2902,9 +2897,11 @@
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C49" s="4">
-        <v>146786</v>
+        <v>31645</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -2933,12 +2930,14 @@
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C50" s="4">
-        <v>144083</v>
+        <v>4366</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2965,10 +2964,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C51" s="4">
-        <v>32240</v>
+        <v>4367</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -2998,10 +2997,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="4">
-        <v>59956</v>
+        <v>4368</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3030,14 +3029,12 @@
       <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="4">
-        <v>73402</v>
+        <v>144084</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -3063,11 +3060,9 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="4">
-        <v>88762</v>
+        <v>146786</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3096,14 +3091,12 @@
       <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="4">
-        <v>88773</v>
+        <v>144083</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -3130,10 +3123,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56" s="4">
-        <v>89073</v>
+        <v>32240</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -3163,10 +3156,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C57" s="4">
-        <v>89109</v>
+        <v>59956</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -3196,10 +3189,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" s="4">
-        <v>89111</v>
+        <v>73402</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -3229,10 +3222,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="4">
-        <v>89112</v>
+        <v>88762</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -3262,10 +3255,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" s="4">
-        <v>89122</v>
+        <v>88773</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
@@ -3295,10 +3288,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C61" s="4">
-        <v>113903</v>
+        <v>89073</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -3328,10 +3321,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C62" s="4">
-        <v>113913</v>
+        <v>89109</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -3361,10 +3354,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" s="4">
-        <v>113907</v>
+        <v>89111</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3394,10 +3387,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C64" s="4">
-        <v>119917</v>
+        <v>89112</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3427,10 +3420,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" s="4">
-        <v>130776</v>
+        <v>89122</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
@@ -3460,10 +3453,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4">
-        <v>141655</v>
+        <v>113903</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -3493,10 +3486,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C67" s="4">
-        <v>141657</v>
+        <v>113913</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
@@ -3526,10 +3519,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C68" s="4">
-        <v>142753</v>
+        <v>113907</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
@@ -3559,10 +3552,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="4">
-        <v>142751</v>
+        <v>119917</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
@@ -3592,10 +3585,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C70" s="4">
-        <v>142951</v>
+        <v>130776</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -3625,10 +3618,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="4">
-        <v>156399</v>
+        <v>141655</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
@@ -3657,9 +3650,11 @@
       <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C72" s="4">
-        <v>157113</v>
+        <v>141657</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>9</v>
@@ -3688,9 +3683,11 @@
       <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C73" s="4">
-        <v>157118</v>
+        <v>142753</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>9</v>
@@ -3719,9 +3716,11 @@
       <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C74" s="4">
-        <v>157119</v>
+        <v>142751</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -3751,10 +3750,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C75" s="4">
-        <v>271322</v>
+        <v>142951</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
@@ -3784,10 +3783,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="4">
-        <v>311092</v>
+        <v>156399</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
@@ -3816,11 +3815,9 @@
       <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="4">
-        <v>318586</v>
+        <v>157113</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>9</v>
@@ -3851,7 +3848,7 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="4">
-        <v>501294</v>
+        <v>157118</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>9</v>
@@ -3880,11 +3877,9 @@
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="4">
-        <v>127013</v>
+        <v>157119</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>9</v>
@@ -3913,9 +3908,11 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C80" s="4">
-        <v>146328</v>
+        <v>271322</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>9</v>
@@ -3944,9 +3941,11 @@
       <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C81" s="4">
-        <v>146328</v>
+        <v>311092</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>9</v>
@@ -3975,9 +3974,11 @@
       <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" s="4">
-        <v>146753</v>
+        <v>318586</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>9</v>
@@ -4006,11 +4007,9 @@
       <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="4">
-        <v>146754</v>
+        <v>501294</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>9</v>
@@ -4040,10 +4039,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C84" s="4">
-        <v>144082</v>
+        <v>127013</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -4072,11 +4071,9 @@
       <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="4">
-        <v>361275</v>
+        <v>146328</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>9</v>
@@ -4102,11 +4099,19 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="2"/>
+      <c r="A86" s="4">
+        <v>82</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="C86" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -4125,11 +4130,19 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="2"/>
+      <c r="A87" s="4">
+        <v>83</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="C87" s="4">
+        <v>146753</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -4148,11 +4161,21 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="4">
+        <v>84</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="4">
+        <v>146754</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4171,11 +4194,21 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="4">
+        <v>85</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="4">
+        <v>144082</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -4194,11 +4227,21 @@
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="4">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="4">
+        <v>361275</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -7068,6 +7111,121 @@
       <c r="T214" s="2"/>
       <c r="U214" s="2"/>
     </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
